--- a/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__FamilyTRY.xlsx
+++ b/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__FamilyTRY.xlsx
@@ -509,7 +509,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Aceraceae</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Alliaceae</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Apiaceae</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Brassicaceae</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Geraniaceae</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Fabaceae</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Rosaceae</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Rosaceae</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Asteraceae</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Poaceae</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>Fabaceae</t>
         </is>
       </c>
     </row>
